--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\200_2025改修\ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HIMEJI-BACKUP\landisk\サントク\202205姫路市VBA\200_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFC2F40-EAFC-4E4D-9A1B-0CAF2CDB6F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E936B-57B0-4F21-A8DC-904D0885ECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1110" yWindow="960" windowWidth="23625" windowHeight="13035" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="従量電灯A" sheetId="12" r:id="rId13"/>
     <sheet name="業務用電力" sheetId="13" r:id="rId14"/>
     <sheet name="メモ" sheetId="22" r:id="rId15"/>
+    <sheet name="預金種類" sheetId="24" r:id="rId16"/>
+    <sheet name="銀行" sheetId="25" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">メータ属性!$A$1:$M$409</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="655">
   <si>
     <t>テナント名称</t>
   </si>
@@ -2239,12 +2241,733 @@
     <t>2025/06/05 11:24:38</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>預金種類</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行名</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行コード</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店コード</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>但陽信用金庫</t>
+  </si>
+  <si>
+    <t>朝来支店</t>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘地支店</t>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>播州信用金庫</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>076</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粟賀支店</t>
+  </si>
+  <si>
+    <t>生野支店</t>
+  </si>
+  <si>
+    <t>稲美支店</t>
+  </si>
+  <si>
+    <t>大塩支店</t>
+  </si>
+  <si>
+    <t>尾上支店</t>
+  </si>
+  <si>
+    <t>加古川東支店</t>
+  </si>
+  <si>
+    <t>加西支店</t>
+  </si>
+  <si>
+    <t>勝原支店</t>
+  </si>
+  <si>
+    <t>神野支店</t>
+  </si>
+  <si>
+    <t>北野支店</t>
+  </si>
+  <si>
+    <t>香呂支店</t>
+  </si>
+  <si>
+    <t>飾磨支店</t>
+  </si>
+  <si>
+    <t>城西支店</t>
+  </si>
+  <si>
+    <t>城北支店</t>
+  </si>
+  <si>
+    <t>高砂支店</t>
+  </si>
+  <si>
+    <t>高砂中央支店</t>
+  </si>
+  <si>
+    <t>高砂西支店</t>
+  </si>
+  <si>
+    <t>土山支店</t>
+  </si>
+  <si>
+    <t>寺前支店</t>
+  </si>
+  <si>
+    <t>姫路支店</t>
+  </si>
+  <si>
+    <t>姫路北支店</t>
+  </si>
+  <si>
+    <t>姫路灘支店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姫路西支店 </t>
+  </si>
+  <si>
+    <t>姫路東支店</t>
+  </si>
+  <si>
+    <t>姫路南支店</t>
+  </si>
+  <si>
+    <t>平野支店</t>
+  </si>
+  <si>
+    <t>福崎支店</t>
+  </si>
+  <si>
+    <t>別府支店</t>
+  </si>
+  <si>
+    <t>本荘支店</t>
+  </si>
+  <si>
+    <t>本店営業部</t>
+  </si>
+  <si>
+    <t>溝口支店</t>
+  </si>
+  <si>
+    <t>和田山支店</t>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>033</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>035</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>027</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>032</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>029</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>036</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加古川</t>
+  </si>
+  <si>
+    <t>船場</t>
+  </si>
+  <si>
+    <t>野里</t>
+  </si>
+  <si>
+    <t>高砂</t>
+  </si>
+  <si>
+    <t>市場</t>
+  </si>
+  <si>
+    <t>相生</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>網干</t>
+  </si>
+  <si>
+    <t>北条</t>
+  </si>
+  <si>
+    <t>福崎</t>
+  </si>
+  <si>
+    <t>飾磨</t>
+  </si>
+  <si>
+    <t>明石</t>
+  </si>
+  <si>
+    <t>兵庫</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>東灘</t>
+  </si>
+  <si>
+    <t>東加古川</t>
+  </si>
+  <si>
+    <t>揖保川</t>
+  </si>
+  <si>
+    <t>神戸西</t>
+  </si>
+  <si>
+    <t>英賀保</t>
+  </si>
+  <si>
+    <t>今宿</t>
+  </si>
+  <si>
+    <t>伊保</t>
+  </si>
+  <si>
+    <t>駅前</t>
+  </si>
+  <si>
+    <t>平野</t>
+  </si>
+  <si>
+    <t>広畑</t>
+  </si>
+  <si>
+    <t>本山</t>
+  </si>
+  <si>
+    <t>赤穂</t>
+  </si>
+  <si>
+    <t>太子</t>
+  </si>
+  <si>
+    <t>保城</t>
+  </si>
+  <si>
+    <t>白浜</t>
+  </si>
+  <si>
+    <t>二見</t>
+  </si>
+  <si>
+    <t>土山</t>
+  </si>
+  <si>
+    <t>龍野</t>
+  </si>
+  <si>
+    <t>青山</t>
+  </si>
+  <si>
+    <t>西明石</t>
+  </si>
+  <si>
+    <t>荒井</t>
+  </si>
+  <si>
+    <t>別府</t>
+  </si>
+  <si>
+    <t>三木</t>
+  </si>
+  <si>
+    <t>大久保</t>
+  </si>
+  <si>
+    <t>御立</t>
+  </si>
+  <si>
+    <t>宝殿</t>
+  </si>
+  <si>
+    <t>飾磨西</t>
+  </si>
+  <si>
+    <t>野口</t>
+  </si>
+  <si>
+    <t>稲美</t>
+  </si>
+  <si>
+    <t>三宮</t>
+  </si>
+  <si>
+    <t>垂水</t>
+  </si>
+  <si>
+    <t>花田</t>
+  </si>
+  <si>
+    <t>灘</t>
+  </si>
+  <si>
+    <t>六甲道</t>
+  </si>
+  <si>
+    <t>三宮北</t>
+  </si>
+  <si>
+    <t>西宮</t>
+  </si>
+  <si>
+    <t>尼崎</t>
+  </si>
+  <si>
+    <t>今津</t>
+  </si>
+  <si>
+    <t>宝塚</t>
+  </si>
+  <si>
+    <t>香寺</t>
+  </si>
+  <si>
+    <t>伊丹</t>
+  </si>
+  <si>
+    <t>西神南</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>上郡</t>
+  </si>
+  <si>
+    <t>小野</t>
+  </si>
+  <si>
+    <t>塚口</t>
+  </si>
+  <si>
+    <t>夢みらい</t>
+  </si>
+  <si>
+    <t>谷上</t>
+  </si>
+  <si>
+    <t>立花</t>
+  </si>
+  <si>
+    <t>西脇</t>
+  </si>
+  <si>
+    <t>西宮北</t>
+  </si>
+  <si>
+    <t>淀川</t>
+  </si>
+  <si>
+    <t>豊中</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2316,6 +3039,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2374,7 +3117,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2413,6 +3156,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4186,13 +4935,1517 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE014A8-5E42-49EB-B180-B9B28D25162E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689966D-31EE-4750-B92F-1DAD82031DE6}">
+  <dimension ref="A1:J103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2">
+        <v>1696</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
+      <c r="A3" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3">
+        <v>1696</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4">
+        <v>1696</v>
+      </c>
+      <c r="C4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5">
+        <v>1696</v>
+      </c>
+      <c r="C5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>1696</v>
+      </c>
+      <c r="C6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7">
+        <v>1696</v>
+      </c>
+      <c r="C7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
+      <c r="A8" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8">
+        <v>1696</v>
+      </c>
+      <c r="C8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9">
+        <v>1696</v>
+      </c>
+      <c r="C9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10">
+        <v>1696</v>
+      </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="A11" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11">
+        <v>1696</v>
+      </c>
+      <c r="C11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12">
+        <v>1696</v>
+      </c>
+      <c r="C12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13">
+        <v>1696</v>
+      </c>
+      <c r="C13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5">
+      <c r="A14" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14">
+        <v>1696</v>
+      </c>
+      <c r="C14" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5">
+      <c r="A15" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15">
+        <v>1696</v>
+      </c>
+      <c r="C15" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5">
+      <c r="A16" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16">
+        <v>1696</v>
+      </c>
+      <c r="C16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17">
+        <v>1696</v>
+      </c>
+      <c r="C17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
+      <c r="A18" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18">
+        <v>1696</v>
+      </c>
+      <c r="C18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5">
+      <c r="A19" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19">
+        <v>1696</v>
+      </c>
+      <c r="C19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5">
+      <c r="A20" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20">
+        <v>1696</v>
+      </c>
+      <c r="C20" t="s">
+        <v>474</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5">
+      <c r="A21" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21">
+        <v>1696</v>
+      </c>
+      <c r="C21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5">
+      <c r="A22" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22">
+        <v>1696</v>
+      </c>
+      <c r="C22" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5">
+      <c r="A23" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B23">
+        <v>1696</v>
+      </c>
+      <c r="C23" t="s">
+        <v>477</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5">
+      <c r="A24" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24">
+        <v>1696</v>
+      </c>
+      <c r="C24" t="s">
+        <v>478</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5">
+      <c r="A25" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B25">
+        <v>1696</v>
+      </c>
+      <c r="C25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5">
+      <c r="A26" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B26">
+        <v>1696</v>
+      </c>
+      <c r="C26" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5">
+      <c r="A27" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B27">
+        <v>1696</v>
+      </c>
+      <c r="C27" t="s">
+        <v>481</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5">
+      <c r="A28" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28">
+        <v>1696</v>
+      </c>
+      <c r="C28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5">
+      <c r="A29" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B29">
+        <v>1696</v>
+      </c>
+      <c r="C29" t="s">
+        <v>483</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5">
+      <c r="A30" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B30">
+        <v>1696</v>
+      </c>
+      <c r="C30" t="s">
+        <v>484</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5">
+      <c r="A31" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31">
+        <v>1696</v>
+      </c>
+      <c r="C31" t="s">
+        <v>485</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5">
+      <c r="A32" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32">
+        <v>1696</v>
+      </c>
+      <c r="C32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5">
+      <c r="A33" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33">
+        <v>1696</v>
+      </c>
+      <c r="C33" t="s">
+        <v>487</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5">
+      <c r="A34" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34">
+        <v>1696</v>
+      </c>
+      <c r="C34" t="s">
+        <v>488</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5">
+      <c r="A35" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35">
+        <v>1696</v>
+      </c>
+      <c r="C35" t="s">
+        <v>489</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5">
+      <c r="A36" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36">
+        <v>1686</v>
+      </c>
+      <c r="C36" t="s">
+        <v>487</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5">
+      <c r="A37" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37">
+        <v>1686</v>
+      </c>
+      <c r="C37" t="s">
+        <v>543</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5">
+      <c r="A38" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B38">
+        <v>1686</v>
+      </c>
+      <c r="C38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5">
+      <c r="A39" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B39">
+        <v>1686</v>
+      </c>
+      <c r="C39" t="s">
+        <v>545</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5">
+      <c r="A40" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40">
+        <v>1686</v>
+      </c>
+      <c r="C40" t="s">
+        <v>546</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5">
+      <c r="A41" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B41">
+        <v>1686</v>
+      </c>
+      <c r="C41" t="s">
+        <v>547</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5">
+      <c r="A42" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B42">
+        <v>1686</v>
+      </c>
+      <c r="C42" t="s">
+        <v>548</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5">
+      <c r="A43" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B43">
+        <v>1686</v>
+      </c>
+      <c r="C43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5">
+      <c r="A44" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B44">
+        <v>1686</v>
+      </c>
+      <c r="C44" t="s">
+        <v>550</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5">
+      <c r="A45" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B45">
+        <v>1686</v>
+      </c>
+      <c r="C45" t="s">
+        <v>551</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5">
+      <c r="A46" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B46">
+        <v>1686</v>
+      </c>
+      <c r="C46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5">
+      <c r="A47" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47">
+        <v>1686</v>
+      </c>
+      <c r="C47" t="s">
+        <v>553</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5">
+      <c r="A48" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48">
+        <v>1686</v>
+      </c>
+      <c r="C48" t="s">
+        <v>554</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5">
+      <c r="A49" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49">
+        <v>1686</v>
+      </c>
+      <c r="C49" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5">
+      <c r="A50" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B50">
+        <v>1686</v>
+      </c>
+      <c r="C50" t="s">
+        <v>556</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5">
+      <c r="A51" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B51">
+        <v>1686</v>
+      </c>
+      <c r="C51" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5">
+      <c r="A52" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52">
+        <v>1686</v>
+      </c>
+      <c r="C52" t="s">
+        <v>558</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5">
+      <c r="A53" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B53">
+        <v>1686</v>
+      </c>
+      <c r="C53" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5">
+      <c r="A54" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B54">
+        <v>1686</v>
+      </c>
+      <c r="C54" t="s">
+        <v>560</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5">
+      <c r="A55" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B55">
+        <v>1686</v>
+      </c>
+      <c r="C55" t="s">
+        <v>561</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5">
+      <c r="A56" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B56">
+        <v>1686</v>
+      </c>
+      <c r="C56" t="s">
+        <v>562</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5">
+      <c r="A57" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B57">
+        <v>1686</v>
+      </c>
+      <c r="C57" t="s">
+        <v>563</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5">
+      <c r="A58" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B58">
+        <v>1686</v>
+      </c>
+      <c r="C58" t="s">
+        <v>564</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5">
+      <c r="A59" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B59">
+        <v>1686</v>
+      </c>
+      <c r="C59" t="s">
+        <v>565</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5">
+      <c r="A60" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B60">
+        <v>1686</v>
+      </c>
+      <c r="C60" t="s">
+        <v>566</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5">
+      <c r="A61" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B61">
+        <v>1686</v>
+      </c>
+      <c r="C61" t="s">
+        <v>567</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5">
+      <c r="A62" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62">
+        <v>1686</v>
+      </c>
+      <c r="C62" t="s">
+        <v>568</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5">
+      <c r="A63" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B63">
+        <v>1686</v>
+      </c>
+      <c r="C63" t="s">
+        <v>569</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5">
+      <c r="A64" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B64">
+        <v>1686</v>
+      </c>
+      <c r="C64" t="s">
+        <v>570</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5">
+      <c r="A65" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65">
+        <v>1686</v>
+      </c>
+      <c r="C65" t="s">
+        <v>571</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5">
+      <c r="A66" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B66">
+        <v>1686</v>
+      </c>
+      <c r="C66" t="s">
+        <v>572</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5">
+      <c r="A67" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67">
+        <v>1686</v>
+      </c>
+      <c r="C67" t="s">
+        <v>573</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5">
+      <c r="A68" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B68">
+        <v>1686</v>
+      </c>
+      <c r="C68" t="s">
+        <v>574</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5">
+      <c r="A69" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B69">
+        <v>1686</v>
+      </c>
+      <c r="C69" t="s">
+        <v>575</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5">
+      <c r="A70" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B70">
+        <v>1686</v>
+      </c>
+      <c r="C70" t="s">
+        <v>576</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5">
+      <c r="A71" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B71">
+        <v>1686</v>
+      </c>
+      <c r="C71" t="s">
+        <v>577</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5">
+      <c r="A72" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B72">
+        <v>1686</v>
+      </c>
+      <c r="C72" t="s">
+        <v>578</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5">
+      <c r="A73" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B73">
+        <v>1686</v>
+      </c>
+      <c r="C73" t="s">
+        <v>579</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5">
+      <c r="A74" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74">
+        <v>1686</v>
+      </c>
+      <c r="C74" t="s">
+        <v>580</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5">
+      <c r="A75" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B75">
+        <v>1686</v>
+      </c>
+      <c r="C75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5">
+      <c r="A76" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B76">
+        <v>1686</v>
+      </c>
+      <c r="C76" t="s">
+        <v>582</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5">
+      <c r="A77" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B77">
+        <v>1686</v>
+      </c>
+      <c r="C77" t="s">
+        <v>583</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5">
+      <c r="A78" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B78">
+        <v>1686</v>
+      </c>
+      <c r="C78" t="s">
+        <v>584</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5">
+      <c r="A79" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B79">
+        <v>1686</v>
+      </c>
+      <c r="C79" t="s">
+        <v>585</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5">
+      <c r="A80" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B80">
+        <v>1686</v>
+      </c>
+      <c r="C80" t="s">
+        <v>586</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5">
+      <c r="A81" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B81">
+        <v>1686</v>
+      </c>
+      <c r="C81" t="s">
+        <v>587</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5">
+      <c r="A82" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B82">
+        <v>1686</v>
+      </c>
+      <c r="C82" t="s">
+        <v>588</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5">
+      <c r="A83" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B83">
+        <v>1686</v>
+      </c>
+      <c r="C83" t="s">
+        <v>589</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5">
+      <c r="A84" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B84">
+        <v>1686</v>
+      </c>
+      <c r="C84" t="s">
+        <v>590</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5">
+      <c r="A85" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85">
+        <v>1686</v>
+      </c>
+      <c r="C85" t="s">
+        <v>591</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5">
+      <c r="A86" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B86">
+        <v>1686</v>
+      </c>
+      <c r="C86" t="s">
+        <v>592</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5">
+      <c r="A87" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B87">
+        <v>1686</v>
+      </c>
+      <c r="C87" t="s">
+        <v>593</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5">
+      <c r="A88" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B88">
+        <v>1686</v>
+      </c>
+      <c r="C88" t="s">
+        <v>594</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5">
+      <c r="A89" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B89">
+        <v>1686</v>
+      </c>
+      <c r="C89" t="s">
+        <v>595</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5">
+      <c r="A90" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B90">
+        <v>1686</v>
+      </c>
+      <c r="C90" t="s">
+        <v>596</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5">
+      <c r="A91" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B91">
+        <v>1686</v>
+      </c>
+      <c r="C91" t="s">
+        <v>597</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5">
+      <c r="A92" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B92">
+        <v>1686</v>
+      </c>
+      <c r="C92" t="s">
+        <v>598</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5">
+      <c r="A93" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B93">
+        <v>1686</v>
+      </c>
+      <c r="C93" t="s">
+        <v>599</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5">
+      <c r="A94" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B94">
+        <v>1686</v>
+      </c>
+      <c r="C94" t="s">
+        <v>600</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5">
+      <c r="A95" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B95">
+        <v>1686</v>
+      </c>
+      <c r="C95" t="s">
+        <v>601</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5">
+      <c r="A96" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B96">
+        <v>1686</v>
+      </c>
+      <c r="C96" t="s">
+        <v>602</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5">
+      <c r="A97" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B97">
+        <v>1686</v>
+      </c>
+      <c r="C97" t="s">
+        <v>603</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5">
+      <c r="A98" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B98">
+        <v>1686</v>
+      </c>
+      <c r="C98" t="s">
+        <v>604</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5">
+      <c r="A99" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B99">
+        <v>1686</v>
+      </c>
+      <c r="C99" t="s">
+        <v>605</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5">
+      <c r="A100" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B100">
+        <v>1686</v>
+      </c>
+      <c r="C100" t="s">
+        <v>606</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5">
+      <c r="A101" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B101">
+        <v>1686</v>
+      </c>
+      <c r="C101" t="s">
+        <v>607</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5">
+      <c r="A102" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102">
+        <v>1686</v>
+      </c>
+      <c r="C102" t="s">
+        <v>608</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5">
+      <c r="A103" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B103">
+        <v>1686</v>
+      </c>
+      <c r="C103" t="s">
+        <v>609</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4421,8 +6674,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20185,7 +22438,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HIMEJI-BACKUP\landisk\サントク\202205姫路市VBA\200_2025改修\ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E936B-57B0-4F21-A8DC-904D0885ECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168EF98B-03CF-4FF6-BF7F-5CA1AE36B03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="654">
   <si>
     <t>テナント名称</t>
   </si>
@@ -2335,10 +2335,6 @@
   </si>
   <si>
     <t>012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>076</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4940,7 +4936,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4974,7 +4970,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5035,7 +5031,7 @@
         <v>1696</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>454</v>
@@ -5049,14 +5045,12 @@
         <v>1696</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>456</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="13" t="s">
@@ -5066,14 +5060,12 @@
         <v>1696</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>457</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="13" t="s">
@@ -5083,10 +5075,10 @@
         <v>1696</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
@@ -5097,10 +5089,10 @@
         <v>1696</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5">
@@ -5111,10 +5103,10 @@
         <v>1696</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5">
@@ -5125,10 +5117,10 @@
         <v>1696</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5">
@@ -5139,10 +5131,10 @@
         <v>1696</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
@@ -5153,10 +5145,10 @@
         <v>1696</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
@@ -5167,10 +5159,10 @@
         <v>1696</v>
       </c>
       <c r="C13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5">
@@ -5181,10 +5173,10 @@
         <v>1696</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5">
@@ -5195,10 +5187,10 @@
         <v>1696</v>
       </c>
       <c r="C15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
@@ -5209,10 +5201,10 @@
         <v>1696</v>
       </c>
       <c r="C16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5">
@@ -5223,10 +5215,10 @@
         <v>1696</v>
       </c>
       <c r="C17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
@@ -5237,10 +5229,10 @@
         <v>1696</v>
       </c>
       <c r="C18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5">
@@ -5251,10 +5243,10 @@
         <v>1696</v>
       </c>
       <c r="C19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5">
@@ -5265,10 +5257,10 @@
         <v>1696</v>
       </c>
       <c r="C20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
@@ -5279,10 +5271,10 @@
         <v>1696</v>
       </c>
       <c r="C21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5">
@@ -5293,10 +5285,10 @@
         <v>1696</v>
       </c>
       <c r="C22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5">
@@ -5307,10 +5299,10 @@
         <v>1696</v>
       </c>
       <c r="C23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5">
@@ -5321,10 +5313,10 @@
         <v>1696</v>
       </c>
       <c r="C24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
@@ -5335,10 +5327,10 @@
         <v>1696</v>
       </c>
       <c r="C25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
@@ -5349,10 +5341,10 @@
         <v>1696</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
@@ -5363,10 +5355,10 @@
         <v>1696</v>
       </c>
       <c r="C27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
@@ -5377,7 +5369,7 @@
         <v>1696</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>456</v>
@@ -5391,10 +5383,10 @@
         <v>1696</v>
       </c>
       <c r="C29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
@@ -5405,10 +5397,10 @@
         <v>1696</v>
       </c>
       <c r="C30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
@@ -5419,10 +5411,10 @@
         <v>1696</v>
       </c>
       <c r="C31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
@@ -5433,10 +5425,10 @@
         <v>1696</v>
       </c>
       <c r="C32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5">
@@ -5447,10 +5439,10 @@
         <v>1696</v>
       </c>
       <c r="C33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5">
@@ -5461,10 +5453,10 @@
         <v>1696</v>
       </c>
       <c r="C34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5">
@@ -5475,10 +5467,10 @@
         <v>1696</v>
       </c>
       <c r="C35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5">
@@ -5489,10 +5481,10 @@
         <v>1686</v>
       </c>
       <c r="C36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5">
@@ -5503,10 +5495,10 @@
         <v>1686</v>
       </c>
       <c r="C37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5">
@@ -5517,10 +5509,10 @@
         <v>1686</v>
       </c>
       <c r="C38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5">
@@ -5531,10 +5523,10 @@
         <v>1686</v>
       </c>
       <c r="C39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5">
@@ -5545,10 +5537,10 @@
         <v>1686</v>
       </c>
       <c r="C40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5">
@@ -5559,10 +5551,10 @@
         <v>1686</v>
       </c>
       <c r="C41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5">
@@ -5573,10 +5565,10 @@
         <v>1686</v>
       </c>
       <c r="C42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5">
@@ -5587,10 +5579,10 @@
         <v>1686</v>
       </c>
       <c r="C43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5">
@@ -5601,10 +5593,10 @@
         <v>1686</v>
       </c>
       <c r="C44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5">
@@ -5615,10 +5607,10 @@
         <v>1686</v>
       </c>
       <c r="C45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5">
@@ -5629,10 +5621,10 @@
         <v>1686</v>
       </c>
       <c r="C46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5">
@@ -5643,10 +5635,10 @@
         <v>1686</v>
       </c>
       <c r="C47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5">
@@ -5657,10 +5649,10 @@
         <v>1686</v>
       </c>
       <c r="C48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5">
@@ -5671,10 +5663,10 @@
         <v>1686</v>
       </c>
       <c r="C49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5">
@@ -5685,10 +5677,10 @@
         <v>1686</v>
       </c>
       <c r="C50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5">
@@ -5699,10 +5691,10 @@
         <v>1686</v>
       </c>
       <c r="C51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5">
@@ -5713,10 +5705,10 @@
         <v>1686</v>
       </c>
       <c r="C52" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5">
@@ -5727,10 +5719,10 @@
         <v>1686</v>
       </c>
       <c r="C53" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5">
@@ -5741,10 +5733,10 @@
         <v>1686</v>
       </c>
       <c r="C54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5">
@@ -5755,10 +5747,10 @@
         <v>1686</v>
       </c>
       <c r="C55" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5">
@@ -5769,10 +5761,10 @@
         <v>1686</v>
       </c>
       <c r="C56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5">
@@ -5783,10 +5775,10 @@
         <v>1686</v>
       </c>
       <c r="C57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
@@ -5797,10 +5789,10 @@
         <v>1686</v>
       </c>
       <c r="C58" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5">
@@ -5811,10 +5803,10 @@
         <v>1686</v>
       </c>
       <c r="C59" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5">
@@ -5825,10 +5817,10 @@
         <v>1686</v>
       </c>
       <c r="C60" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5">
@@ -5839,10 +5831,10 @@
         <v>1686</v>
       </c>
       <c r="C61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5">
@@ -5853,10 +5845,10 @@
         <v>1686</v>
       </c>
       <c r="C62" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5">
@@ -5867,10 +5859,10 @@
         <v>1686</v>
       </c>
       <c r="C63" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5">
@@ -5881,10 +5873,10 @@
         <v>1686</v>
       </c>
       <c r="C64" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5">
@@ -5895,10 +5887,10 @@
         <v>1686</v>
       </c>
       <c r="C65" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5">
@@ -5909,10 +5901,10 @@
         <v>1686</v>
       </c>
       <c r="C66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5">
@@ -5923,10 +5915,10 @@
         <v>1686</v>
       </c>
       <c r="C67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5">
@@ -5937,10 +5929,10 @@
         <v>1686</v>
       </c>
       <c r="C68" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5">
@@ -5951,10 +5943,10 @@
         <v>1686</v>
       </c>
       <c r="C69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5">
@@ -5965,10 +5957,10 @@
         <v>1686</v>
       </c>
       <c r="C70" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5">
@@ -5979,10 +5971,10 @@
         <v>1686</v>
       </c>
       <c r="C71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5">
@@ -5993,10 +5985,10 @@
         <v>1686</v>
       </c>
       <c r="C72" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5">
@@ -6007,10 +5999,10 @@
         <v>1686</v>
       </c>
       <c r="C73" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5">
@@ -6021,10 +6013,10 @@
         <v>1686</v>
       </c>
       <c r="C74" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5">
@@ -6035,10 +6027,10 @@
         <v>1686</v>
       </c>
       <c r="C75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5">
@@ -6049,10 +6041,10 @@
         <v>1686</v>
       </c>
       <c r="C76" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5">
@@ -6063,10 +6055,10 @@
         <v>1686</v>
       </c>
       <c r="C77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5">
@@ -6077,10 +6069,10 @@
         <v>1686</v>
       </c>
       <c r="C78" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5">
@@ -6091,10 +6083,10 @@
         <v>1686</v>
       </c>
       <c r="C79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5">
@@ -6105,10 +6097,10 @@
         <v>1686</v>
       </c>
       <c r="C80" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5">
@@ -6119,10 +6111,10 @@
         <v>1686</v>
       </c>
       <c r="C81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5">
@@ -6133,10 +6125,10 @@
         <v>1686</v>
       </c>
       <c r="C82" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5">
@@ -6147,10 +6139,10 @@
         <v>1686</v>
       </c>
       <c r="C83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5">
@@ -6161,10 +6153,10 @@
         <v>1686</v>
       </c>
       <c r="C84" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5">
@@ -6175,10 +6167,10 @@
         <v>1686</v>
       </c>
       <c r="C85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5">
@@ -6189,10 +6181,10 @@
         <v>1686</v>
       </c>
       <c r="C86" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5">
@@ -6203,10 +6195,10 @@
         <v>1686</v>
       </c>
       <c r="C87" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5">
@@ -6217,10 +6209,10 @@
         <v>1686</v>
       </c>
       <c r="C88" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5">
@@ -6231,10 +6223,10 @@
         <v>1686</v>
       </c>
       <c r="C89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5">
@@ -6245,10 +6237,10 @@
         <v>1686</v>
       </c>
       <c r="C90" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5">
@@ -6259,10 +6251,10 @@
         <v>1686</v>
       </c>
       <c r="C91" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5">
@@ -6273,10 +6265,10 @@
         <v>1686</v>
       </c>
       <c r="C92" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5">
@@ -6287,10 +6279,10 @@
         <v>1686</v>
       </c>
       <c r="C93" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5">
@@ -6301,10 +6293,10 @@
         <v>1686</v>
       </c>
       <c r="C94" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5">
@@ -6315,10 +6307,10 @@
         <v>1686</v>
       </c>
       <c r="C95" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5">
@@ -6329,10 +6321,10 @@
         <v>1686</v>
       </c>
       <c r="C96" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5">
@@ -6343,10 +6335,10 @@
         <v>1686</v>
       </c>
       <c r="C97" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5">
@@ -6357,10 +6349,10 @@
         <v>1686</v>
       </c>
       <c r="C98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5">
@@ -6371,10 +6363,10 @@
         <v>1686</v>
       </c>
       <c r="C99" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5">
@@ -6385,10 +6377,10 @@
         <v>1686</v>
       </c>
       <c r="C100" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5">
@@ -6399,10 +6391,10 @@
         <v>1686</v>
       </c>
       <c r="C101" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5">
@@ -6413,10 +6405,10 @@
         <v>1686</v>
       </c>
       <c r="C102" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5">
@@ -6427,10 +6419,10 @@
         <v>1686</v>
       </c>
       <c r="C103" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168EF98B-03CF-4FF6-BF7F-5CA1AE36B03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B33494-00A6-4CC4-84DA-41630A2D87AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -6667,7 +6667,7 @@
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B33494-00A6-4CC4-84DA-41630A2D87AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268F0A0F-7062-4323-A5C8-74902F9DDC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>

--- a/市場_2025改修/ソース/master.xlsx
+++ b/市場_2025改修/ソース/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HIMEJI-BACKUP\landisk\サントク\202205姫路市VBA\200_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268F0A0F-7062-4323-A5C8-74902F9DDC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A481C80B-9B49-45E9-8703-23C7C94558C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="白紙" sheetId="23" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="660">
   <si>
     <t>テナント名称</t>
   </si>
@@ -2252,20 +2252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>普通</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>口座</t>
-    <rPh sb="0" eb="2">
-      <t>コウザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銀行名</t>
     <rPh sb="0" eb="2">
       <t>ギンコウ</t>
@@ -2957,6 +2943,95 @@
   </si>
   <si>
     <t>087</t>
+  </si>
+  <si>
+    <t>1:普通預金</t>
+    <rPh sb="2" eb="4">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:当座預金</t>
+    <rPh sb="2" eb="4">
+      <t>トウザ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4:貯蓄預金</t>
+    <rPh sb="2" eb="4">
+      <t>チョチク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9:その他</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高割</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025/7追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座作成日</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座取込日</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4933,10 +5008,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE014A8-5E42-49EB-B180-B9B28D25162E}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4951,12 +5026,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -4969,7 +5054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9689966D-31EE-4750-B92F-1DAD82031DE6}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4983,1446 +5068,1446 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" t="s">
         <v>445</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>446</v>
-      </c>
-      <c r="C1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B2">
         <v>1696</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B3">
         <v>1696</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B4">
         <v>1696</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5">
         <v>1696</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B6">
         <v>1696</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B7">
         <v>1696</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B8">
         <v>1696</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B9">
         <v>1696</v>
       </c>
       <c r="C9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B10">
         <v>1696</v>
       </c>
       <c r="C10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B11">
         <v>1696</v>
       </c>
       <c r="C11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B12">
         <v>1696</v>
       </c>
       <c r="C12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B13">
         <v>1696</v>
       </c>
       <c r="C13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B14">
         <v>1696</v>
       </c>
       <c r="C14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B15">
         <v>1696</v>
       </c>
       <c r="C15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B16">
         <v>1696</v>
       </c>
       <c r="C16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B17">
         <v>1696</v>
       </c>
       <c r="C17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B18">
         <v>1696</v>
       </c>
       <c r="C18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B19">
         <v>1696</v>
       </c>
       <c r="C19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B20">
         <v>1696</v>
       </c>
       <c r="C20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B21">
         <v>1696</v>
       </c>
       <c r="C21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B22">
         <v>1696</v>
       </c>
       <c r="C22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B23">
         <v>1696</v>
       </c>
       <c r="C23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B24">
         <v>1696</v>
       </c>
       <c r="C24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B25">
         <v>1696</v>
       </c>
       <c r="C25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B26">
         <v>1696</v>
       </c>
       <c r="C26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B27">
         <v>1696</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B28">
         <v>1696</v>
       </c>
       <c r="C28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B29">
         <v>1696</v>
       </c>
       <c r="C29" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B30">
         <v>1696</v>
       </c>
       <c r="C30" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B31">
         <v>1696</v>
       </c>
       <c r="C31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B32">
         <v>1696</v>
       </c>
       <c r="C32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B33">
         <v>1696</v>
       </c>
       <c r="C33" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5">
       <c r="A34" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B34">
         <v>1696</v>
       </c>
       <c r="C34" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5">
       <c r="A35" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B35">
         <v>1696</v>
       </c>
       <c r="C35" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B36">
         <v>1686</v>
       </c>
       <c r="C36" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5">
       <c r="A37" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B37">
         <v>1686</v>
       </c>
       <c r="C37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5">
       <c r="A38" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B38">
         <v>1686</v>
       </c>
       <c r="C38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B39">
         <v>1686</v>
       </c>
       <c r="C39" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5">
       <c r="A40" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B40">
         <v>1686</v>
       </c>
       <c r="C40" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5">
       <c r="A41" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B41">
         <v>1686</v>
       </c>
       <c r="C41" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5">
       <c r="A42" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B42">
         <v>1686</v>
       </c>
       <c r="C42" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B43">
         <v>1686</v>
       </c>
       <c r="C43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5">
       <c r="A44" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B44">
         <v>1686</v>
       </c>
       <c r="C44" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5">
       <c r="A45" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B45">
         <v>1686</v>
       </c>
       <c r="C45" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5">
       <c r="A46" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B46">
         <v>1686</v>
       </c>
       <c r="C46" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5">
       <c r="A47" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B47">
         <v>1686</v>
       </c>
       <c r="C47" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5">
       <c r="A48" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B48">
         <v>1686</v>
       </c>
       <c r="C48" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5">
       <c r="A49" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B49">
         <v>1686</v>
       </c>
       <c r="C49" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5">
       <c r="A50" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B50">
         <v>1686</v>
       </c>
       <c r="C50" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5">
       <c r="A51" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B51">
         <v>1686</v>
       </c>
       <c r="C51" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5">
       <c r="A52" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B52">
         <v>1686</v>
       </c>
       <c r="C52" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5">
       <c r="A53" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B53">
         <v>1686</v>
       </c>
       <c r="C53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5">
       <c r="A54" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B54">
         <v>1686</v>
       </c>
       <c r="C54" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5">
       <c r="A55" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B55">
         <v>1686</v>
       </c>
       <c r="C55" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5">
       <c r="A56" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B56">
         <v>1686</v>
       </c>
       <c r="C56" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5">
       <c r="A57" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B57">
         <v>1686</v>
       </c>
       <c r="C57" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
       <c r="A58" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B58">
         <v>1686</v>
       </c>
       <c r="C58" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5">
       <c r="A59" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B59">
         <v>1686</v>
       </c>
       <c r="C59" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5">
       <c r="A60" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B60">
         <v>1686</v>
       </c>
       <c r="C60" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5">
       <c r="A61" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B61">
         <v>1686</v>
       </c>
       <c r="C61" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5">
       <c r="A62" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B62">
         <v>1686</v>
       </c>
       <c r="C62" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5">
       <c r="A63" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B63">
         <v>1686</v>
       </c>
       <c r="C63" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5">
       <c r="A64" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B64">
         <v>1686</v>
       </c>
       <c r="C64" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5">
       <c r="A65" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B65">
         <v>1686</v>
       </c>
       <c r="C65" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5">
       <c r="A66" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B66">
         <v>1686</v>
       </c>
       <c r="C66" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5">
       <c r="A67" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B67">
         <v>1686</v>
       </c>
       <c r="C67" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5">
       <c r="A68" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B68">
         <v>1686</v>
       </c>
       <c r="C68" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5">
       <c r="A69" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B69">
         <v>1686</v>
       </c>
       <c r="C69" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5">
       <c r="A70" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B70">
         <v>1686</v>
       </c>
       <c r="C70" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5">
       <c r="A71" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B71">
         <v>1686</v>
       </c>
       <c r="C71" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5">
       <c r="A72" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B72">
         <v>1686</v>
       </c>
       <c r="C72" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5">
       <c r="A73" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B73">
         <v>1686</v>
       </c>
       <c r="C73" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5">
       <c r="A74" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B74">
         <v>1686</v>
       </c>
       <c r="C74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5">
       <c r="A75" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B75">
         <v>1686</v>
       </c>
       <c r="C75" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5">
       <c r="A76" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76">
         <v>1686</v>
       </c>
       <c r="C76" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5">
       <c r="A77" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B77">
         <v>1686</v>
       </c>
       <c r="C77" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5">
       <c r="A78" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B78">
         <v>1686</v>
       </c>
       <c r="C78" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5">
       <c r="A79" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B79">
         <v>1686</v>
       </c>
       <c r="C79" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5">
       <c r="A80" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B80">
         <v>1686</v>
       </c>
       <c r="C80" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5">
       <c r="A81" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B81">
         <v>1686</v>
       </c>
       <c r="C81" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5">
       <c r="A82" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B82">
         <v>1686</v>
       </c>
       <c r="C82" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5">
       <c r="A83" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B83">
         <v>1686</v>
       </c>
       <c r="C83" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5">
       <c r="A84" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B84">
         <v>1686</v>
       </c>
       <c r="C84" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5">
       <c r="A85" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B85">
         <v>1686</v>
       </c>
       <c r="C85" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5">
       <c r="A86" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B86">
         <v>1686</v>
       </c>
       <c r="C86" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5">
       <c r="A87" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B87">
         <v>1686</v>
       </c>
       <c r="C87" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5">
       <c r="A88" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B88">
         <v>1686</v>
       </c>
       <c r="C88" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5">
       <c r="A89" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B89">
         <v>1686</v>
       </c>
       <c r="C89" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5">
       <c r="A90" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B90">
         <v>1686</v>
       </c>
       <c r="C90" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5">
       <c r="A91" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B91">
         <v>1686</v>
       </c>
       <c r="C91" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5">
       <c r="A92" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B92">
         <v>1686</v>
       </c>
       <c r="C92" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5">
       <c r="A93" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B93">
         <v>1686</v>
       </c>
       <c r="C93" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5">
       <c r="A94" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B94">
         <v>1686</v>
       </c>
       <c r="C94" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5">
       <c r="A95" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B95">
         <v>1686</v>
       </c>
       <c r="C95" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5">
       <c r="A96" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B96">
         <v>1686</v>
       </c>
       <c r="C96" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5">
       <c r="A97" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B97">
         <v>1686</v>
       </c>
       <c r="C97" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5">
       <c r="A98" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B98">
         <v>1686</v>
       </c>
       <c r="C98" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5">
       <c r="A99" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B99">
         <v>1686</v>
       </c>
       <c r="C99" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5">
       <c r="A100" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B100">
         <v>1686</v>
       </c>
       <c r="C100" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5">
       <c r="A101" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B101">
         <v>1686</v>
       </c>
       <c r="C101" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5">
       <c r="A102" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B102">
         <v>1686</v>
       </c>
       <c r="C102" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5">
       <c r="A103" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B103">
         <v>1686</v>
       </c>
       <c r="C103" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -6434,10 +6519,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6653,6 +6738,33 @@
       </c>
       <c r="B16" s="7" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>656</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>658</v>
+      </c>
+      <c r="C21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>659</v>
+      </c>
+      <c r="C22" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
